--- a/Note.xlsx
+++ b/Note.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-juzhu\workbranchDayShiftCalendar19-2-21update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-junzhu\workspace\uMark\ShiftArrangementTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B33720-6CF5-4924-82DF-F80A6092EF8D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113B729-5DDE-4121-BE43-DA907618D58D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4620" windowWidth="29040" windowHeight="17790" xr2:uid="{A3A8795E-7178-4B8B-9AEB-70B2CB63741A}"/>
+    <workbookView xWindow="4590" yWindow="510" windowWidth="18000" windowHeight="9360" xr2:uid="{A3A8795E-7178-4B8B-9AEB-70B2CB63741A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>add two new status "MS"(morning shift),"NS"(night shift)</t>
   </si>
@@ -103,17 +103,310 @@
   </si>
   <si>
     <t>Logic</t>
+  </si>
+  <si>
+    <t>Anik Shen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boqian Wang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clover Zhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damien Hong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danielle Zhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dennis Zheng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanli Ren</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Henry Shen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jery Lu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johnny Wang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juntao Zhu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaiang Zhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kris Zhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lancent Yuan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leo Yang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leon Li</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liang Fang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linru Hui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selina Sun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Yu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yili Zhou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuk Fang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boqwang</t>
+  </si>
+  <si>
+    <t>miz</t>
+  </si>
+  <si>
+    <t>v-dahong</t>
+  </si>
+  <si>
+    <t>danzha</t>
+  </si>
+  <si>
+    <t>xinzhen</t>
+  </si>
+  <si>
+    <t>hanren</t>
+  </si>
+  <si>
+    <t>loshen</t>
+  </si>
+  <si>
+    <t>juzhu</t>
+  </si>
+  <si>
+    <t>v-layuan</t>
+  </si>
+  <si>
+    <t>v-leol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifan</t>
+  </si>
+  <si>
+    <t>linhui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suya</t>
+  </si>
+  <si>
+    <t>v-yilzho</t>
+  </si>
+  <si>
+    <t>yfa</t>
+  </si>
+  <si>
+    <t>anikshen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-jelu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>johnnwa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaiazhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junfzha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-leya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-yayu4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MengYang Chen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mench</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adam Zhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bin Yang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Zheng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DingSong Zhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frank Pan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hai Yue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harry Zhu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JiaBing Tai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucy Weng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MingHao Li</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ping Wu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qian Sha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rui Shen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sean Wu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shi Ding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuannan Wang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> (v-luweng)</t>
+  </si>
+  <si>
+    <t> (minghl)</t>
+  </si>
+  <si>
+    <t>(piw)</t>
+  </si>
+  <si>
+    <t> (qisha)</t>
+  </si>
+  <si>
+    <t> (rush)</t>
+  </si>
+  <si>
+    <t>(jiajwu)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t> (shidin)</t>
+  </si>
+  <si>
+    <t> (yuaw)</t>
+  </si>
+  <si>
+    <t> (yizhang)</t>
+  </si>
+  <si>
+    <t> (v-biyang)</t>
+  </si>
+  <si>
+    <t> (v-davzhe)</t>
+  </si>
+  <si>
+    <t>(dizha)</t>
+  </si>
+  <si>
+    <t> (v-frpan)</t>
+  </si>
+  <si>
+    <t> (yuhai)</t>
+  </si>
+  <si>
+    <t>(shz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -123,6 +416,27 @@
       <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFE8E6E3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFE8E6E3"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,14 +459,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,7 +488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -464,21 +784,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC611C29-663A-48EE-983A-8B1659FE11E4}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -489,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -503,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -514,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -522,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -530,7 +852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -541,7 +863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -552,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -560,7 +882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -568,7 +890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -576,37 +898,367 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
